--- a/content/Book Ten 2nd Half 61 - 70.xlsx
+++ b/content/Book Ten 2nd Half 61 - 70.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54A0042-498A-4A0C-B498-B57335CCFBE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8B8856-D880-474B-A87C-60F2528BA5E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="923" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 10-61" sheetId="10" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9643" uniqueCount="5855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9644" uniqueCount="5855">
   <si>
     <t>श्रीमद्भागवतमहापुराणम्</t>
   </si>
@@ -17585,28 +17585,20 @@
     <t>Pinaakee (Shankara) discharged various weapons on the Shaaranga (bow) wielder (Krishna), Who, unperturbed, subdued them with counter attacks.</t>
   </si>
   <si>
-    <t>ENGLISH PASSAGE MISSING FOR SHLOKA 26</t>
-  </si>
-  <si>
     <t>Enraged Balaraama, the best of strickers, hit the monkey with a slab of stone. The monkey, however dodged the stone and took the pot of liquor (Vaaruni).</t>
+  </si>
+  <si>
+    <t>Time, Destiny, Karma, the soul, Swabhaava, the elements, body, vital breath, ego, the evolutes, by association with Whom, as seed are sown, and grow, is Your Maayaa. I salute to You, in Whom Maayaa is negated.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -17632,7 +17624,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -17676,7 +17668,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -18017,9 +18008,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E355"/>
   <sheetViews>
-    <sheetView topLeftCell="A340" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A340" sqref="A340"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="92" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -35431,8 +35420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E478"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A462" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E479" sqref="E479"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="92" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35445,31 +35434,40 @@
     <col min="6" max="16384" width="92" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D1" s="17" t="s">
-        <v>5853</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>5840</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5841</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5842</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5843</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5844</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>5840</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5841</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5842</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>5843</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5844</v>
+        <v>5845</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>5845</v>
+        <v>5846</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -35478,52 +35476,52 @@
         <v>0</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>5846</v>
+        <v>5847</v>
       </c>
       <c r="B4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>1</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>5847</v>
+        <v>5851</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>1069</v>
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>5851</v>
+        <v>5849</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
       </c>
       <c r="C6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>4</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -35534,24 +35532,27 @@
         <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>5849</v>
+        <v>5848</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
       </c>
       <c r="C8" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>1072</v>
+        <v>1073</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -35562,13 +35563,13 @@
         <v>1</v>
       </c>
       <c r="C9" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -35579,13 +35580,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -35596,13 +35597,13 @@
         <v>1</v>
       </c>
       <c r="C11" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>1071</v>
+        <v>1075</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -35613,44 +35614,41 @@
         <v>1</v>
       </c>
       <c r="C12" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>5848</v>
+        <v>5850</v>
       </c>
       <c r="B13" s="2">
         <v>1</v>
       </c>
       <c r="C13" s="2">
-        <v>5</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>1076</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>5850</v>
+        <v>5849</v>
       </c>
       <c r="B14" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" s="2">
-        <v>0</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>1082</v>
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>1083</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -35661,24 +35659,27 @@
         <v>2</v>
       </c>
       <c r="C15" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>5849</v>
+        <v>5848</v>
       </c>
       <c r="B16" s="2">
         <v>2</v>
       </c>
       <c r="C16" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>1084</v>
+        <v>1085</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>1089</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -35689,13 +35690,13 @@
         <v>2</v>
       </c>
       <c r="C17" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -35706,13 +35707,13 @@
         <v>2</v>
       </c>
       <c r="C18" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -35723,44 +35724,41 @@
         <v>2</v>
       </c>
       <c r="C19" s="2">
+        <v>4</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>5850</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>5849</v>
+      </c>
+      <c r="B21" s="2">
         <v>3</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>1087</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>5848</v>
-      </c>
-      <c r="B20" s="2">
-        <v>2</v>
-      </c>
-      <c r="C20" s="2">
-        <v>4</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>1088</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>5850</v>
-      </c>
-      <c r="B21" s="2">
-        <v>2</v>
-      </c>
       <c r="C21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -35771,24 +35769,27 @@
         <v>3</v>
       </c>
       <c r="C22" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>5849</v>
+        <v>5848</v>
       </c>
       <c r="B23" s="2">
         <v>3</v>
       </c>
       <c r="C23" s="2">
-        <v>2</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>1095</v>
+        <v>1</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>1102</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -35799,13 +35800,13 @@
         <v>3</v>
       </c>
       <c r="C24" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -35816,13 +35817,13 @@
         <v>3</v>
       </c>
       <c r="C25" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -35833,13 +35834,13 @@
         <v>3</v>
       </c>
       <c r="C26" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -35850,13 +35851,13 @@
         <v>3</v>
       </c>
       <c r="C27" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -35867,44 +35868,41 @@
         <v>3</v>
       </c>
       <c r="C28" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>5848</v>
+        <v>5850</v>
       </c>
       <c r="B29" s="2">
         <v>3</v>
       </c>
       <c r="C29" s="2">
-        <v>6</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>1101</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>5850</v>
+        <v>5849</v>
       </c>
       <c r="B30" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -35915,24 +35913,27 @@
         <v>4</v>
       </c>
       <c r="C31" s="2">
-        <v>1</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>1109</v>
+        <v>2</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>1110</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>5849</v>
+        <v>5848</v>
       </c>
       <c r="B32" s="2">
         <v>4</v>
       </c>
       <c r="C32" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>1110</v>
+        <v>1112</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>1116</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -35943,13 +35944,13 @@
         <v>4</v>
       </c>
       <c r="C33" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -35960,13 +35961,13 @@
         <v>4</v>
       </c>
       <c r="C34" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -35977,13 +35978,13 @@
         <v>4</v>
       </c>
       <c r="C35" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -35994,47 +35995,44 @@
         <v>4</v>
       </c>
       <c r="C36" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>1111</v>
+        <v>1115</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>5848</v>
+        <v>5850</v>
       </c>
       <c r="B37" s="2">
         <v>4</v>
       </c>
       <c r="C37" s="2">
+        <v>0</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>5849</v>
+      </c>
+      <c r="B38" s="2">
         <v>5</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>5850</v>
-      </c>
-      <c r="B38" s="2">
-        <v>4</v>
-      </c>
       <c r="C38" s="2">
-        <v>0</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>5849</v>
       </c>
@@ -36042,24 +36040,27 @@
         <v>5</v>
       </c>
       <c r="C39" s="2">
-        <v>1</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>5849</v>
+        <v>5848</v>
       </c>
       <c r="B40" s="2">
         <v>5</v>
       </c>
       <c r="C40" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>1123</v>
+        <v>1124</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>1127</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -36070,13 +36071,13 @@
         <v>5</v>
       </c>
       <c r="C41" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -36087,13 +36088,13 @@
         <v>5</v>
       </c>
       <c r="C42" s="2">
-        <v>2</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>1125</v>
+        <v>3</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>1130</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>1128</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -36104,13 +36105,13 @@
         <v>5</v>
       </c>
       <c r="C43" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -36121,44 +36122,41 @@
         <v>5</v>
       </c>
       <c r="C44" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>5848</v>
+        <v>5850</v>
       </c>
       <c r="B45" s="2">
         <v>5</v>
       </c>
       <c r="C45" s="2">
-        <v>5</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>1126</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>5850</v>
+        <v>5849</v>
       </c>
       <c r="B46" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -36169,24 +36167,27 @@
         <v>6</v>
       </c>
       <c r="C47" s="2">
-        <v>1</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>1135</v>
+        <v>2</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>1136</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>5849</v>
+        <v>5848</v>
       </c>
       <c r="B48" s="2">
         <v>6</v>
       </c>
       <c r="C48" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>1136</v>
+        <v>1138</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>1142</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -36197,13 +36198,13 @@
         <v>6</v>
       </c>
       <c r="C49" s="2">
-        <v>1</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>1138</v>
+        <v>2</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>1137</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -36214,13 +36215,13 @@
         <v>6</v>
       </c>
       <c r="C50" s="2">
-        <v>2</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>1137</v>
+        <v>3</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>1139</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -36231,13 +36232,13 @@
         <v>6</v>
       </c>
       <c r="C51" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -36248,44 +36249,41 @@
         <v>6</v>
       </c>
       <c r="C52" s="2">
-        <v>4</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>1140</v>
+        <v>5</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>1141</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>5848</v>
+        <v>5850</v>
       </c>
       <c r="B53" s="2">
         <v>6</v>
       </c>
       <c r="C53" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>1141</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>5850</v>
+        <v>5849</v>
       </c>
       <c r="B54" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C54" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -36296,24 +36294,27 @@
         <v>7</v>
       </c>
       <c r="C55" s="2">
-        <v>1</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>1148</v>
+        <v>2</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>1149</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>5849</v>
+        <v>5848</v>
       </c>
       <c r="B56" s="2">
         <v>7</v>
       </c>
       <c r="C56" s="2">
-        <v>2</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>1149</v>
+        <v>1</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>1154</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -36324,13 +36325,13 @@
         <v>7</v>
       </c>
       <c r="C57" s="2">
-        <v>1</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>1150</v>
+        <v>2</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>1151</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -36341,13 +36342,13 @@
         <v>7</v>
       </c>
       <c r="C58" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -36358,13 +36359,13 @@
         <v>7</v>
       </c>
       <c r="C59" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>1152</v>
+        <v>257</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>1156</v>
+        <v>265</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -36375,44 +36376,41 @@
         <v>7</v>
       </c>
       <c r="C60" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>257</v>
+        <v>1153</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>5848</v>
+        <v>5850</v>
       </c>
       <c r="B61" s="2">
         <v>7</v>
       </c>
       <c r="C61" s="2">
-        <v>5</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>1153</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>5850</v>
+        <v>5849</v>
       </c>
       <c r="B62" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" s="2">
-        <v>0</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>1158</v>
+        <v>1</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>1163</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -36423,24 +36421,27 @@
         <v>8</v>
       </c>
       <c r="C63" s="2">
-        <v>1</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>1163</v>
+        <v>2</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>1159</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>5849</v>
+        <v>5848</v>
       </c>
       <c r="B64" s="2">
         <v>8</v>
       </c>
       <c r="C64" s="2">
-        <v>2</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>1159</v>
+        <v>1</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>1165</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -36451,16 +36452,16 @@
         <v>8</v>
       </c>
       <c r="C65" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>1165</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>5848</v>
       </c>
@@ -36468,16 +36469,16 @@
         <v>8</v>
       </c>
       <c r="C66" s="2">
-        <v>2</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>1160</v>
+        <v>3</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>1162</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>5848</v>
       </c>
@@ -36485,44 +36486,41 @@
         <v>8</v>
       </c>
       <c r="C67" s="2">
-        <v>3</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>1162</v>
+        <v>4</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>1161</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>1168</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>5848</v>
+        <v>5850</v>
       </c>
       <c r="B68" s="2">
         <v>8</v>
       </c>
       <c r="C68" s="2">
-        <v>4</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>1161</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>5850</v>
+        <v>5849</v>
       </c>
       <c r="B69" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -36533,24 +36531,27 @@
         <v>9</v>
       </c>
       <c r="C70" s="2">
-        <v>1</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>1170</v>
+        <v>2</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>1171</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>5849</v>
+        <v>5848</v>
       </c>
       <c r="B71" s="2">
         <v>9</v>
       </c>
       <c r="C71" s="2">
-        <v>2</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>1171</v>
+        <v>1</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>1177</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -36561,13 +36562,13 @@
         <v>9</v>
       </c>
       <c r="C72" s="2">
-        <v>1</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>1172</v>
+        <v>2</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>1173</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -36578,13 +36579,13 @@
         <v>9</v>
       </c>
       <c r="C73" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -36595,13 +36596,13 @@
         <v>9</v>
       </c>
       <c r="C74" s="2">
-        <v>3</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>1174</v>
+        <v>4</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>1175</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -36612,44 +36613,41 @@
         <v>9</v>
       </c>
       <c r="C75" s="2">
-        <v>4</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>1175</v>
+        <v>5</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>1176</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>5848</v>
+        <v>5850</v>
       </c>
       <c r="B76" s="2">
         <v>9</v>
       </c>
       <c r="C76" s="2">
-        <v>5</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>1176</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>5850</v>
+        <v>5849</v>
       </c>
       <c r="B77" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C77" s="2">
-        <v>0</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>1182</v>
+        <v>1</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>1183</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -36660,27 +36658,30 @@
         <v>10</v>
       </c>
       <c r="C78" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>5849</v>
+        <v>5848</v>
       </c>
       <c r="B79" s="2">
         <v>10</v>
       </c>
       <c r="C79" s="2">
-        <v>2</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>1184</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>5848</v>
       </c>
@@ -36688,16 +36689,16 @@
         <v>10</v>
       </c>
       <c r="C80" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>5848</v>
       </c>
@@ -36705,13 +36706,13 @@
         <v>10</v>
       </c>
       <c r="C81" s="2">
-        <v>2</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>1187</v>
+        <v>3</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>1185</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -36722,13 +36723,13 @@
         <v>10</v>
       </c>
       <c r="C82" s="2">
-        <v>3</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>1185</v>
+        <v>4</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>1188</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -36739,44 +36740,41 @@
         <v>10</v>
       </c>
       <c r="C83" s="2">
-        <v>4</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>1188</v>
+        <v>5</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>1189</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>5848</v>
+        <v>5850</v>
       </c>
       <c r="B84" s="2">
         <v>10</v>
       </c>
       <c r="C84" s="2">
-        <v>5</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>1189</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>5850</v>
+        <v>5849</v>
       </c>
       <c r="B85" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C85" s="2">
-        <v>0</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>1195</v>
+        <v>1</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>1196</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -36787,24 +36785,27 @@
         <v>11</v>
       </c>
       <c r="C86" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>5849</v>
+        <v>5848</v>
       </c>
       <c r="B87" s="2">
         <v>11</v>
       </c>
       <c r="C87" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>1197</v>
+        <v>1201</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>1204</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -36815,13 +36816,13 @@
         <v>11</v>
       </c>
       <c r="C88" s="2">
-        <v>1</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>1201</v>
+        <v>2</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>1198</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -36832,13 +36833,13 @@
         <v>11</v>
       </c>
       <c r="C89" s="2">
-        <v>2</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>1198</v>
+        <v>3</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>1199</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -36849,13 +36850,13 @@
         <v>11</v>
       </c>
       <c r="C90" s="2">
-        <v>3</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>1199</v>
+        <v>4</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>1200</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -36866,13 +36867,13 @@
         <v>11</v>
       </c>
       <c r="C91" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -36883,44 +36884,41 @@
         <v>11</v>
       </c>
       <c r="C92" s="2">
-        <v>5</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>1202</v>
+        <v>6</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>1203</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>1208</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>5848</v>
+        <v>5850</v>
       </c>
       <c r="B93" s="2">
         <v>11</v>
       </c>
       <c r="C93" s="2">
-        <v>6</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>1203</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>5850</v>
+        <v>5849</v>
       </c>
       <c r="B94" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C94" s="2">
-        <v>0</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>1210</v>
+        <v>1</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>1211</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -36931,24 +36929,27 @@
         <v>12</v>
       </c>
       <c r="C95" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>5849</v>
+        <v>5848</v>
       </c>
       <c r="B96" s="2">
         <v>12</v>
       </c>
       <c r="C96" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>1212</v>
+        <v>1213</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>1218</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -36959,13 +36960,13 @@
         <v>12</v>
       </c>
       <c r="C97" s="2">
-        <v>1</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>1213</v>
+        <v>2</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>1214</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -36976,13 +36977,13 @@
         <v>12</v>
       </c>
       <c r="C98" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -36993,13 +36994,13 @@
         <v>12</v>
       </c>
       <c r="C99" s="2">
-        <v>3</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>1215</v>
+        <v>4</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>1216</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -37010,44 +37011,41 @@
         <v>12</v>
       </c>
       <c r="C100" s="2">
-        <v>4</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>1216</v>
+        <v>5</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>1217</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>5848</v>
+        <v>5850</v>
       </c>
       <c r="B101" s="2">
         <v>12</v>
       </c>
       <c r="C101" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>1217</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>5852</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>5850</v>
+        <v>5849</v>
       </c>
       <c r="B102" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C102" s="2">
-        <v>0</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>5852</v>
+        <v>1</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>1223</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -37058,24 +37056,27 @@
         <v>13</v>
       </c>
       <c r="C103" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>5849</v>
+        <v>5848</v>
       </c>
       <c r="B104" s="2">
         <v>13</v>
       </c>
       <c r="C104" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>1224</v>
+        <v>1226</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>1229</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -37086,13 +37087,13 @@
         <v>13</v>
       </c>
       <c r="C105" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -37103,13 +37104,13 @@
         <v>13</v>
       </c>
       <c r="C106" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -37120,44 +37121,41 @@
         <v>13</v>
       </c>
       <c r="C107" s="2">
-        <v>3</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>1227</v>
+        <v>4</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>1228</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>5848</v>
+        <v>5850</v>
       </c>
       <c r="B108" s="2">
         <v>13</v>
       </c>
       <c r="C108" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>1228</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>5850</v>
+        <v>5849</v>
       </c>
       <c r="B109" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C109" s="2">
-        <v>0</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>1233</v>
+        <v>1</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>1234</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -37168,24 +37166,27 @@
         <v>14</v>
       </c>
       <c r="C110" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>5849</v>
+        <v>5848</v>
       </c>
       <c r="B111" s="2">
         <v>14</v>
       </c>
       <c r="C111" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>1235</v>
+        <v>1238</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>1242</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -37196,13 +37197,13 @@
         <v>14</v>
       </c>
       <c r="C112" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -37213,13 +37214,13 @@
         <v>14</v>
       </c>
       <c r="C113" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -37230,13 +37231,13 @@
         <v>14</v>
       </c>
       <c r="C114" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -37247,13 +37248,13 @@
         <v>14</v>
       </c>
       <c r="C115" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -37264,44 +37265,41 @@
         <v>14</v>
       </c>
       <c r="C116" s="2">
-        <v>5</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>1240</v>
+        <v>6</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>1241</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>1246</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>5848</v>
+        <v>5850</v>
       </c>
       <c r="B117" s="2">
         <v>14</v>
       </c>
       <c r="C117" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>1241</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>5850</v>
+        <v>5849</v>
       </c>
       <c r="B118" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C118" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -37312,24 +37310,27 @@
         <v>15</v>
       </c>
       <c r="C119" s="2">
-        <v>1</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>1249</v>
+        <v>2</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>1250</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>5849</v>
+        <v>5848</v>
       </c>
       <c r="B120" s="2">
         <v>15</v>
       </c>
       <c r="C120" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>1250</v>
+        <v>1252</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>1256</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -37340,13 +37341,13 @@
         <v>15</v>
       </c>
       <c r="C121" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -37357,13 +37358,13 @@
         <v>15</v>
       </c>
       <c r="C122" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -37374,13 +37375,13 @@
         <v>15</v>
       </c>
       <c r="C123" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -37391,44 +37392,41 @@
         <v>15</v>
       </c>
       <c r="C124" s="2">
-        <v>4</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>1251</v>
+        <v>5</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>1255</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>5848</v>
+        <v>5850</v>
       </c>
       <c r="B125" s="2">
         <v>15</v>
       </c>
       <c r="C125" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>1255</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>5850</v>
+        <v>5849</v>
       </c>
       <c r="B126" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C126" s="2">
-        <v>0</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>1261</v>
+        <v>1</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>1262</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -37439,24 +37437,27 @@
         <v>16</v>
       </c>
       <c r="C127" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>5849</v>
+        <v>5848</v>
       </c>
       <c r="B128" s="2">
         <v>16</v>
       </c>
       <c r="C128" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>1263</v>
+        <v>1264</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>1268</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -37467,13 +37468,13 @@
         <v>16</v>
       </c>
       <c r="C129" s="2">
-        <v>1</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>1264</v>
+        <v>2</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>1265</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -37484,13 +37485,13 @@
         <v>16</v>
       </c>
       <c r="C130" s="2">
-        <v>2</v>
-      </c>
-      <c r="D130" s="3" t="s">
-        <v>1265</v>
+        <v>3</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>1266</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -37501,44 +37502,41 @@
         <v>16</v>
       </c>
       <c r="C131" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>1270</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>5848</v>
+        <v>5850</v>
       </c>
       <c r="B132" s="2">
         <v>16</v>
       </c>
       <c r="C132" s="2">
-        <v>4</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>1267</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>1271</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>5850</v>
+        <v>5849</v>
       </c>
       <c r="B133" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C133" s="2">
-        <v>0</v>
-      </c>
-      <c r="D133" s="3" t="s">
-        <v>1272</v>
+        <v>1</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>1274</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -37549,24 +37547,27 @@
         <v>17</v>
       </c>
       <c r="C134" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>5849</v>
+        <v>5848</v>
       </c>
       <c r="B135" s="2">
         <v>17</v>
       </c>
       <c r="C135" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>1273</v>
+        <v>1276</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>1281</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -37577,13 +37578,13 @@
         <v>17</v>
       </c>
       <c r="C136" s="2">
-        <v>1</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>1276</v>
+        <v>2</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>1277</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -37594,13 +37595,13 @@
         <v>17</v>
       </c>
       <c r="C137" s="2">
-        <v>2</v>
-      </c>
-      <c r="D137" s="3" t="s">
-        <v>1277</v>
+        <v>3</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>1278</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -37611,13 +37612,13 @@
         <v>17</v>
       </c>
       <c r="C138" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -37628,13 +37629,13 @@
         <v>17</v>
       </c>
       <c r="C139" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -37645,44 +37646,41 @@
         <v>17</v>
       </c>
       <c r="C140" s="2">
-        <v>5</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>1275</v>
+        <v>6</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>1280</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>1285</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>5848</v>
+        <v>5850</v>
       </c>
       <c r="B141" s="2">
         <v>17</v>
       </c>
       <c r="C141" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>1280</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>5850</v>
+        <v>5849</v>
       </c>
       <c r="B142" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C142" s="2">
-        <v>0</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>1287</v>
+        <v>1</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>1289</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -37693,24 +37691,27 @@
         <v>18</v>
       </c>
       <c r="C143" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>5849</v>
+        <v>5848</v>
       </c>
       <c r="B144" s="2">
         <v>18</v>
       </c>
       <c r="C144" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>1288</v>
+        <v>1293</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>1301</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -37721,13 +37722,13 @@
         <v>18</v>
       </c>
       <c r="C145" s="2">
-        <v>1</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>1293</v>
+        <v>2</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>1290</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>1301</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -37738,13 +37739,13 @@
         <v>18</v>
       </c>
       <c r="C146" s="2">
-        <v>2</v>
-      </c>
-      <c r="D146" s="3" t="s">
-        <v>1290</v>
+        <v>3</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>1291</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -37755,13 +37756,13 @@
         <v>18</v>
       </c>
       <c r="C147" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>1291</v>
+        <v>1294</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -37772,13 +37773,13 @@
         <v>18</v>
       </c>
       <c r="C148" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -37789,44 +37790,41 @@
         <v>18</v>
       </c>
       <c r="C149" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>1292</v>
+        <v>1295</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>5848</v>
+        <v>5850</v>
       </c>
       <c r="B150" s="2">
         <v>18</v>
       </c>
       <c r="C150" s="2">
-        <v>6</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>1295</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>5850</v>
+        <v>5849</v>
       </c>
       <c r="B151" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C151" s="2">
-        <v>0</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>1302</v>
+        <v>1</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>1303</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -37837,24 +37835,27 @@
         <v>19</v>
       </c>
       <c r="C152" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>5849</v>
+        <v>5848</v>
       </c>
       <c r="B153" s="2">
         <v>19</v>
       </c>
       <c r="C153" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>1304</v>
+        <v>1305</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>1311</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -37865,13 +37866,13 @@
         <v>19</v>
       </c>
       <c r="C154" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -37882,13 +37883,13 @@
         <v>19</v>
       </c>
       <c r="C155" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -37899,13 +37900,13 @@
         <v>19</v>
       </c>
       <c r="C156" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -37916,13 +37917,13 @@
         <v>19</v>
       </c>
       <c r="C157" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -37933,44 +37934,41 @@
         <v>19</v>
       </c>
       <c r="C158" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>1315</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>5848</v>
+        <v>5850</v>
       </c>
       <c r="B159" s="2">
         <v>19</v>
       </c>
       <c r="C159" s="2">
-        <v>6</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>1310</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>5850</v>
+        <v>5849</v>
       </c>
       <c r="B160" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C160" s="2">
-        <v>0</v>
-      </c>
-      <c r="D160" s="3" t="s">
-        <v>1317</v>
+        <v>1</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>1319</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -37981,24 +37979,27 @@
         <v>20</v>
       </c>
       <c r="C161" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>5849</v>
+        <v>5848</v>
       </c>
       <c r="B162" s="2">
         <v>20</v>
       </c>
       <c r="C162" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>1318</v>
+        <v>1321</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>1325</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -38009,13 +38010,13 @@
         <v>20</v>
       </c>
       <c r="C163" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -38026,13 +38027,13 @@
         <v>20</v>
       </c>
       <c r="C164" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>1320</v>
+        <v>1322</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -38043,13 +38044,13 @@
         <v>20</v>
       </c>
       <c r="C165" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -38060,44 +38061,41 @@
         <v>20</v>
       </c>
       <c r="C166" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>1328</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>5848</v>
+        <v>5850</v>
       </c>
       <c r="B167" s="2">
         <v>20</v>
       </c>
       <c r="C167" s="2">
-        <v>5</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>1324</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>5850</v>
+        <v>5849</v>
       </c>
       <c r="B168" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C168" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -38108,24 +38106,27 @@
         <v>21</v>
       </c>
       <c r="C169" s="2">
-        <v>1</v>
-      </c>
-      <c r="D169" s="3" t="s">
-        <v>1331</v>
+        <v>2</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>1332</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>5849</v>
+        <v>5848</v>
       </c>
       <c r="B170" s="2">
         <v>21</v>
       </c>
       <c r="C170" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>1332</v>
+        <v>1334</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>1339</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -38136,13 +38137,13 @@
         <v>21</v>
       </c>
       <c r="C171" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -38153,13 +38154,13 @@
         <v>21</v>
       </c>
       <c r="C172" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
@@ -38170,13 +38171,13 @@
         <v>21</v>
       </c>
       <c r="C173" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -38187,13 +38188,13 @@
         <v>21</v>
       </c>
       <c r="C174" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>1333</v>
+        <v>1337</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
@@ -38204,44 +38205,41 @@
         <v>21</v>
       </c>
       <c r="C175" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>5848</v>
+        <v>5850</v>
       </c>
       <c r="B176" s="2">
         <v>21</v>
       </c>
       <c r="C176" s="2">
-        <v>6</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>1338</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>1344</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>5850</v>
+        <v>5849</v>
       </c>
       <c r="B177" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C177" s="2">
-        <v>0</v>
-      </c>
-      <c r="D177" s="3" t="s">
-        <v>1345</v>
+        <v>1</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>1346</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -38252,24 +38250,27 @@
         <v>22</v>
       </c>
       <c r="C178" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>5849</v>
+        <v>5848</v>
       </c>
       <c r="B179" s="2">
         <v>22</v>
       </c>
       <c r="C179" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>1347</v>
+        <v>1348</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>1352</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
@@ -38280,13 +38281,13 @@
         <v>22</v>
       </c>
       <c r="C180" s="2">
-        <v>1</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>1348</v>
+        <v>2</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>1349</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
@@ -38297,13 +38298,13 @@
         <v>22</v>
       </c>
       <c r="C181" s="2">
-        <v>2</v>
-      </c>
-      <c r="D181" s="3" t="s">
-        <v>1349</v>
+        <v>3</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>1350</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
@@ -38314,44 +38315,41 @@
         <v>22</v>
       </c>
       <c r="C182" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>5848</v>
+        <v>5850</v>
       </c>
       <c r="B183" s="2">
         <v>22</v>
       </c>
       <c r="C183" s="2">
-        <v>4</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>1351</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>5850</v>
+        <v>5849</v>
       </c>
       <c r="B184" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C184" s="2">
-        <v>0</v>
-      </c>
-      <c r="D184" s="3" t="s">
-        <v>1356</v>
+        <v>1</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>1357</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
@@ -38362,24 +38360,27 @@
         <v>23</v>
       </c>
       <c r="C185" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>1357</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>5849</v>
+        <v>5848</v>
       </c>
       <c r="B186" s="2">
         <v>23</v>
       </c>
       <c r="C186" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>1422</v>
+        <v>1358</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>1363</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -38390,13 +38391,13 @@
         <v>23</v>
       </c>
       <c r="C187" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
@@ -38407,13 +38408,13 @@
         <v>23</v>
       </c>
       <c r="C188" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
@@ -38424,13 +38425,13 @@
         <v>23</v>
       </c>
       <c r="C189" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
@@ -38441,44 +38442,41 @@
         <v>23</v>
       </c>
       <c r="C190" s="2">
-        <v>4</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>1361</v>
+        <v>5</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>1362</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>5848</v>
+        <v>5850</v>
       </c>
       <c r="B191" s="2">
         <v>23</v>
       </c>
       <c r="C191" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>1362</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>5850</v>
+        <v>5849</v>
       </c>
       <c r="B192" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C192" s="2">
-        <v>0</v>
-      </c>
-      <c r="D192" s="3" t="s">
-        <v>1368</v>
+        <v>1</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>1369</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
@@ -38489,10 +38487,10 @@
         <v>24</v>
       </c>
       <c r="C193" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
@@ -38503,24 +38501,27 @@
         <v>24</v>
       </c>
       <c r="C194" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>1371</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>5849</v>
+        <v>5848</v>
       </c>
       <c r="B195" s="2">
         <v>24</v>
       </c>
       <c r="C195" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>1421</v>
+        <v>1370</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>1377</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
@@ -38531,13 +38532,13 @@
         <v>24</v>
       </c>
       <c r="C196" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
@@ -38548,13 +38549,13 @@
         <v>24</v>
       </c>
       <c r="C197" s="2">
-        <v>2</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>1372</v>
+        <v>3</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>1373</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
@@ -38565,13 +38566,13 @@
         <v>24</v>
       </c>
       <c r="C198" s="2">
-        <v>3</v>
-      </c>
-      <c r="D198" s="3" t="s">
-        <v>1373</v>
+        <v>4</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>1374</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
@@ -38582,13 +38583,13 @@
         <v>24</v>
       </c>
       <c r="C199" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
@@ -38599,44 +38600,41 @@
         <v>24</v>
       </c>
       <c r="C200" s="2">
-        <v>5</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>1375</v>
+        <v>6</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>1376</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>1381</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>5848</v>
+        <v>5850</v>
       </c>
       <c r="B201" s="2">
         <v>24</v>
       </c>
       <c r="C201" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>1376</v>
-      </c>
-      <c r="E201" s="2" t="s">
-        <v>1382</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>5850</v>
+        <v>5849</v>
       </c>
       <c r="B202" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C202" s="2">
-        <v>0</v>
-      </c>
-      <c r="D202" s="3" t="s">
-        <v>1383</v>
+        <v>1</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>1424</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
@@ -38647,10 +38645,10 @@
         <v>25</v>
       </c>
       <c r="C203" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
@@ -38661,24 +38659,27 @@
         <v>25</v>
       </c>
       <c r="C204" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>5849</v>
+        <v>5848</v>
       </c>
       <c r="B205" s="2">
         <v>25</v>
       </c>
       <c r="C205" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>1423</v>
+        <v>1426</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>1433</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
@@ -38689,13 +38690,13 @@
         <v>25</v>
       </c>
       <c r="C206" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
@@ -38706,13 +38707,13 @@
         <v>25</v>
       </c>
       <c r="C207" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>1427</v>
+        <v>1435</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>1434</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
@@ -38723,13 +38724,13 @@
         <v>25</v>
       </c>
       <c r="C208" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>1435</v>
+        <v>1428</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -38740,13 +38741,13 @@
         <v>25</v>
       </c>
       <c r="C209" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
@@ -38757,13 +38758,13 @@
         <v>25</v>
       </c>
       <c r="C210" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -38774,13 +38775,13 @@
         <v>25</v>
       </c>
       <c r="C211" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -38791,44 +38792,41 @@
         <v>25</v>
       </c>
       <c r="C212" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="156" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>5848</v>
+        <v>5850</v>
       </c>
       <c r="B213" s="2">
         <v>25</v>
       </c>
       <c r="C213" s="2">
-        <v>8</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>1432</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>1441</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" ht="156" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D213" s="3" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>5850</v>
+        <v>5849</v>
       </c>
       <c r="B214" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C214" s="2">
-        <v>0</v>
-      </c>
-      <c r="D214" s="3" t="s">
-        <v>1442</v>
+        <v>1</v>
+      </c>
+      <c r="D214" s="4" t="s">
+        <v>1384</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -38839,24 +38837,27 @@
         <v>26</v>
       </c>
       <c r="C215" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>1384</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>5849</v>
+        <v>5848</v>
       </c>
       <c r="B216" s="2">
         <v>26</v>
       </c>
       <c r="C216" s="2">
-        <v>2</v>
-      </c>
-      <c r="D216" s="4" t="s">
-        <v>1443</v>
+        <v>1</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>1445</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>1451</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
@@ -38867,13 +38868,13 @@
         <v>26</v>
       </c>
       <c r="C217" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
@@ -38884,13 +38885,13 @@
         <v>26</v>
       </c>
       <c r="C218" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
@@ -38901,13 +38902,13 @@
         <v>26</v>
       </c>
       <c r="C219" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>1444</v>
+        <v>1447</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
@@ -38918,13 +38919,13 @@
         <v>26</v>
       </c>
       <c r="C220" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
@@ -38935,16 +38936,16 @@
         <v>26</v>
       </c>
       <c r="C221" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>1455</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>5848</v>
       </c>
@@ -38952,30 +38953,27 @@
         <v>26</v>
       </c>
       <c r="C222" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>1456</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>5848</v>
+        <v>5850</v>
       </c>
       <c r="B223" s="2">
         <v>26</v>
       </c>
       <c r="C223" s="2">
-        <v>7</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>1450</v>
-      </c>
-      <c r="E223" s="2" t="s">
-        <v>1457</v>
+        <v>0</v>
+      </c>
+      <c r="D223" s="3" t="s">
+        <v>5854</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
@@ -38983,10 +38981,10 @@
         <v>5849</v>
       </c>
       <c r="B224" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C224" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>1385</v>
@@ -38997,10 +38995,10 @@
         <v>5849</v>
       </c>
       <c r="B225" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C225" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D225" s="4" t="s">
         <v>1386</v>
@@ -39011,7 +39009,7 @@
         <v>5848</v>
       </c>
       <c r="B226" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C226" s="2">
         <v>1</v>
@@ -39028,7 +39026,7 @@
         <v>5848</v>
       </c>
       <c r="B227" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C227" s="2">
         <v>2</v>
@@ -39045,7 +39043,7 @@
         <v>5848</v>
       </c>
       <c r="B228" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C228" s="2">
         <v>3</v>
@@ -39062,7 +39060,7 @@
         <v>5848</v>
       </c>
       <c r="B229" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C229" s="2">
         <v>4</v>
@@ -39079,7 +39077,7 @@
         <v>5848</v>
       </c>
       <c r="B230" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C230" s="2">
         <v>5</v>
@@ -39096,7 +39094,7 @@
         <v>5848</v>
       </c>
       <c r="B231" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C231" s="2">
         <v>6</v>
@@ -39113,7 +39111,7 @@
         <v>5848</v>
       </c>
       <c r="B232" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C232" s="2">
         <v>7</v>
@@ -39130,7 +39128,7 @@
         <v>5849</v>
       </c>
       <c r="B233" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C233" s="2">
         <v>8</v>
@@ -39144,7 +39142,7 @@
         <v>5850</v>
       </c>
       <c r="B234" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C234" s="2">
         <v>0</v>
@@ -39158,7 +39156,7 @@
         <v>5849</v>
       </c>
       <c r="B235" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C235" s="2">
         <v>1</v>
@@ -39172,7 +39170,7 @@
         <v>5849</v>
       </c>
       <c r="B236" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C236" s="2">
         <v>2</v>
@@ -39186,7 +39184,7 @@
         <v>5848</v>
       </c>
       <c r="B237" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C237" s="2">
         <v>1</v>
@@ -39203,7 +39201,7 @@
         <v>5848</v>
       </c>
       <c r="B238" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C238" s="2">
         <v>2</v>
@@ -39220,7 +39218,7 @@
         <v>5848</v>
       </c>
       <c r="B239" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C239" s="2">
         <v>3</v>
@@ -39237,7 +39235,7 @@
         <v>5848</v>
       </c>
       <c r="B240" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C240" s="2">
         <v>4</v>
@@ -39254,7 +39252,7 @@
         <v>5848</v>
       </c>
       <c r="B241" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C241" s="2">
         <v>5</v>
@@ -39271,7 +39269,7 @@
         <v>5849</v>
       </c>
       <c r="B242" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C242" s="2">
         <v>6</v>
@@ -39285,7 +39283,7 @@
         <v>5850</v>
       </c>
       <c r="B243" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C243" s="2">
         <v>0</v>
@@ -39299,7 +39297,7 @@
         <v>5849</v>
       </c>
       <c r="B244" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C244" s="2">
         <v>1</v>
@@ -39313,7 +39311,7 @@
         <v>5849</v>
       </c>
       <c r="B245" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C245" s="2">
         <v>2</v>
@@ -39327,7 +39325,7 @@
         <v>5849</v>
       </c>
       <c r="B246" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C246" s="2">
         <v>3</v>
@@ -39341,7 +39339,7 @@
         <v>5848</v>
       </c>
       <c r="B247" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C247" s="2">
         <v>1</v>
@@ -39358,7 +39356,7 @@
         <v>5848</v>
       </c>
       <c r="B248" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C248" s="2">
         <v>2</v>
@@ -39375,7 +39373,7 @@
         <v>5848</v>
       </c>
       <c r="B249" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C249" s="2">
         <v>3</v>
@@ -39392,7 +39390,7 @@
         <v>5848</v>
       </c>
       <c r="B250" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C250" s="2">
         <v>4</v>
@@ -39409,7 +39407,7 @@
         <v>5848</v>
       </c>
       <c r="B251" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C251" s="2">
         <v>5</v>
@@ -39426,7 +39424,7 @@
         <v>5848</v>
       </c>
       <c r="B252" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C252" s="2">
         <v>6</v>
@@ -39443,7 +39441,7 @@
         <v>5850</v>
       </c>
       <c r="B253" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C253" s="2">
         <v>0</v>
@@ -39457,7 +39455,7 @@
         <v>5849</v>
       </c>
       <c r="B254" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C254" s="2">
         <v>1</v>
@@ -39471,7 +39469,7 @@
         <v>5849</v>
       </c>
       <c r="B255" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C255" s="2">
         <v>2</v>
@@ -39485,7 +39483,7 @@
         <v>5848</v>
       </c>
       <c r="B256" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C256" s="2">
         <v>1</v>
@@ -39502,7 +39500,7 @@
         <v>5848</v>
       </c>
       <c r="B257" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C257" s="2">
         <v>2</v>
@@ -39519,7 +39517,7 @@
         <v>5848</v>
       </c>
       <c r="B258" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C258" s="2">
         <v>3</v>
@@ -39536,7 +39534,7 @@
         <v>5848</v>
       </c>
       <c r="B259" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C259" s="2">
         <v>4</v>
@@ -39553,7 +39551,7 @@
         <v>5848</v>
       </c>
       <c r="B260" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C260" s="2">
         <v>5</v>
@@ -39570,7 +39568,7 @@
         <v>5848</v>
       </c>
       <c r="B261" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C261" s="2">
         <v>6</v>
@@ -39587,7 +39585,7 @@
         <v>5850</v>
       </c>
       <c r="B262" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C262" s="2">
         <v>0</v>
@@ -39601,7 +39599,7 @@
         <v>5849</v>
       </c>
       <c r="B263" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C263" s="2">
         <v>1</v>
@@ -39615,7 +39613,7 @@
         <v>5849</v>
       </c>
       <c r="B264" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C264" s="2">
         <v>2</v>
@@ -39629,7 +39627,7 @@
         <v>5848</v>
       </c>
       <c r="B265" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C265" s="2">
         <v>1</v>
@@ -39646,7 +39644,7 @@
         <v>5848</v>
       </c>
       <c r="B266" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C266" s="2">
         <v>2</v>
@@ -39663,7 +39661,7 @@
         <v>5848</v>
       </c>
       <c r="B267" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C267" s="2">
         <v>3</v>
@@ -39680,7 +39678,7 @@
         <v>5848</v>
       </c>
       <c r="B268" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C268" s="2">
         <v>4</v>
@@ -39697,7 +39695,7 @@
         <v>5848</v>
       </c>
       <c r="B269" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C269" s="2">
         <v>5</v>
@@ -39714,7 +39712,7 @@
         <v>5850</v>
       </c>
       <c r="B270" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C270" s="2">
         <v>0</v>
@@ -39728,7 +39726,7 @@
         <v>5849</v>
       </c>
       <c r="B271" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C271" s="2">
         <v>1</v>
@@ -39742,7 +39740,7 @@
         <v>5849</v>
       </c>
       <c r="B272" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C272" s="2">
         <v>2</v>
@@ -39756,7 +39754,7 @@
         <v>5848</v>
       </c>
       <c r="B273" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C273" s="2">
         <v>1</v>
@@ -39773,7 +39771,7 @@
         <v>5848</v>
       </c>
       <c r="B274" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C274" s="2">
         <v>2</v>
@@ -39790,7 +39788,7 @@
         <v>5848</v>
       </c>
       <c r="B275" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C275" s="2">
         <v>3</v>
@@ -39807,7 +39805,7 @@
         <v>5848</v>
       </c>
       <c r="B276" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C276" s="2">
         <v>4</v>
@@ -39824,7 +39822,7 @@
         <v>5848</v>
       </c>
       <c r="B277" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C277" s="2">
         <v>5</v>
@@ -39841,7 +39839,7 @@
         <v>5848</v>
       </c>
       <c r="B278" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C278" s="2">
         <v>6</v>
@@ -39858,7 +39856,7 @@
         <v>5850</v>
       </c>
       <c r="B279" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C279" s="2">
         <v>0</v>
@@ -39872,7 +39870,7 @@
         <v>5849</v>
       </c>
       <c r="B280" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C280" s="2">
         <v>1</v>
@@ -39886,7 +39884,7 @@
         <v>5849</v>
       </c>
       <c r="B281" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C281" s="2">
         <v>2</v>
@@ -39900,7 +39898,7 @@
         <v>5848</v>
       </c>
       <c r="B282" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C282" s="2">
         <v>1</v>
@@ -39917,7 +39915,7 @@
         <v>5848</v>
       </c>
       <c r="B283" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C283" s="2">
         <v>2</v>
@@ -39934,7 +39932,7 @@
         <v>5848</v>
       </c>
       <c r="B284" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C284" s="2">
         <v>3</v>
@@ -39951,7 +39949,7 @@
         <v>5848</v>
       </c>
       <c r="B285" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C285" s="2">
         <v>4</v>
@@ -39968,7 +39966,7 @@
         <v>5848</v>
       </c>
       <c r="B286" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C286" s="2">
         <v>5</v>
@@ -39985,7 +39983,7 @@
         <v>5850</v>
       </c>
       <c r="B287" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C287" s="2">
         <v>0</v>
@@ -39999,7 +39997,7 @@
         <v>5851</v>
       </c>
       <c r="B288" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C288" s="2">
         <v>0</v>
@@ -40016,7 +40014,7 @@
         <v>5849</v>
       </c>
       <c r="B289" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C289" s="2">
         <v>1</v>
@@ -40030,7 +40028,7 @@
         <v>5849</v>
       </c>
       <c r="B290" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C290" s="2">
         <v>2</v>
@@ -40044,7 +40042,7 @@
         <v>5848</v>
       </c>
       <c r="B291" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C291" s="2">
         <v>1</v>
@@ -40061,7 +40059,7 @@
         <v>5848</v>
       </c>
       <c r="B292" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C292" s="2">
         <v>2</v>
@@ -40078,7 +40076,7 @@
         <v>5848</v>
       </c>
       <c r="B293" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C293" s="2">
         <v>3</v>
@@ -40095,7 +40093,7 @@
         <v>5848</v>
       </c>
       <c r="B294" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C294" s="2">
         <v>4</v>
@@ -40112,7 +40110,7 @@
         <v>5848</v>
       </c>
       <c r="B295" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C295" s="2">
         <v>5</v>
@@ -40129,7 +40127,7 @@
         <v>5848</v>
       </c>
       <c r="B296" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C296" s="2">
         <v>6</v>
@@ -40146,7 +40144,7 @@
         <v>5850</v>
       </c>
       <c r="B297" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C297" s="2">
         <v>0</v>
@@ -40160,7 +40158,7 @@
         <v>5849</v>
       </c>
       <c r="B298" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C298" s="2">
         <v>1</v>
@@ -40174,7 +40172,7 @@
         <v>5849</v>
       </c>
       <c r="B299" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C299" s="2">
         <v>2</v>
@@ -40188,7 +40186,7 @@
         <v>5848</v>
       </c>
       <c r="B300" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C300" s="2">
         <v>1</v>
@@ -40205,7 +40203,7 @@
         <v>5848</v>
       </c>
       <c r="B301" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C301" s="2">
         <v>2</v>
@@ -40222,7 +40220,7 @@
         <v>5848</v>
       </c>
       <c r="B302" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C302" s="2">
         <v>3</v>
@@ -40239,7 +40237,7 @@
         <v>5848</v>
       </c>
       <c r="B303" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C303" s="2">
         <v>4</v>
@@ -40256,7 +40254,7 @@
         <v>5848</v>
       </c>
       <c r="B304" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C304" s="2">
         <v>5</v>
@@ -40273,7 +40271,7 @@
         <v>5848</v>
       </c>
       <c r="B305" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C305" s="2">
         <v>6</v>
@@ -40290,7 +40288,7 @@
         <v>5848</v>
       </c>
       <c r="B306" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C306" s="2">
         <v>7</v>
@@ -40307,7 +40305,7 @@
         <v>5850</v>
       </c>
       <c r="B307" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C307" s="2">
         <v>0</v>
@@ -40321,7 +40319,7 @@
         <v>5849</v>
       </c>
       <c r="B308" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C308" s="2">
         <v>1</v>
@@ -40335,7 +40333,7 @@
         <v>5849</v>
       </c>
       <c r="B309" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C309" s="2">
         <v>2</v>
@@ -40349,7 +40347,7 @@
         <v>5848</v>
       </c>
       <c r="B310" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C310" s="2">
         <v>1</v>
@@ -40366,7 +40364,7 @@
         <v>5848</v>
       </c>
       <c r="B311" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C311" s="2">
         <v>2</v>
@@ -40383,7 +40381,7 @@
         <v>5848</v>
       </c>
       <c r="B312" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C312" s="2">
         <v>3</v>
@@ -40400,7 +40398,7 @@
         <v>5848</v>
       </c>
       <c r="B313" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C313" s="2">
         <v>4</v>
@@ -40417,7 +40415,7 @@
         <v>5848</v>
       </c>
       <c r="B314" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C314" s="2">
         <v>5</v>
@@ -40434,7 +40432,7 @@
         <v>5848</v>
       </c>
       <c r="B315" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C315" s="2">
         <v>6</v>
@@ -40451,7 +40449,7 @@
         <v>5848</v>
       </c>
       <c r="B316" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C316" s="2">
         <v>7</v>
@@ -40468,7 +40466,7 @@
         <v>5850</v>
       </c>
       <c r="B317" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C317" s="2">
         <v>0</v>
@@ -40482,7 +40480,7 @@
         <v>5849</v>
       </c>
       <c r="B318" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C318" s="2">
         <v>1</v>
@@ -40496,7 +40494,7 @@
         <v>5849</v>
       </c>
       <c r="B319" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C319" s="2">
         <v>2</v>
@@ -40510,7 +40508,7 @@
         <v>5848</v>
       </c>
       <c r="B320" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C320" s="2">
         <v>1</v>
@@ -40527,7 +40525,7 @@
         <v>5848</v>
       </c>
       <c r="B321" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C321" s="2">
         <v>2</v>
@@ -40544,7 +40542,7 @@
         <v>5848</v>
       </c>
       <c r="B322" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C322" s="2">
         <v>3</v>
@@ -40561,7 +40559,7 @@
         <v>5848</v>
       </c>
       <c r="B323" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C323" s="2">
         <v>4</v>
@@ -40578,7 +40576,7 @@
         <v>5848</v>
       </c>
       <c r="B324" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C324" s="2">
         <v>5</v>
@@ -40595,7 +40593,7 @@
         <v>5848</v>
       </c>
       <c r="B325" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C325" s="2">
         <v>6</v>
@@ -40612,7 +40610,7 @@
         <v>5848</v>
       </c>
       <c r="B326" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C326" s="2">
         <v>7</v>
@@ -40629,7 +40627,7 @@
         <v>5848</v>
       </c>
       <c r="B327" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C327" s="2">
         <v>8</v>
@@ -40646,7 +40644,7 @@
         <v>5850</v>
       </c>
       <c r="B328" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C328" s="2">
         <v>0</v>
@@ -40660,7 +40658,7 @@
         <v>5849</v>
       </c>
       <c r="B329" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C329" s="2">
         <v>1</v>
@@ -40674,7 +40672,7 @@
         <v>5849</v>
       </c>
       <c r="B330" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C330" s="2">
         <v>2</v>
@@ -40688,7 +40686,7 @@
         <v>5848</v>
       </c>
       <c r="B331" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C331" s="2">
         <v>1</v>
@@ -40705,7 +40703,7 @@
         <v>5848</v>
       </c>
       <c r="B332" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C332" s="2">
         <v>2</v>
@@ -40722,7 +40720,7 @@
         <v>5848</v>
       </c>
       <c r="B333" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C333" s="2">
         <v>3</v>
@@ -40739,7 +40737,7 @@
         <v>5848</v>
       </c>
       <c r="B334" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C334" s="2">
         <v>4</v>
@@ -40756,7 +40754,7 @@
         <v>5848</v>
       </c>
       <c r="B335" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C335" s="2">
         <v>5</v>
@@ -40773,7 +40771,7 @@
         <v>5848</v>
       </c>
       <c r="B336" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C336" s="2">
         <v>6</v>
@@ -40790,7 +40788,7 @@
         <v>5848</v>
       </c>
       <c r="B337" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C337" s="2">
         <v>7</v>
@@ -40807,7 +40805,7 @@
         <v>5850</v>
       </c>
       <c r="B338" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C338" s="2">
         <v>0</v>
@@ -40821,7 +40819,7 @@
         <v>5849</v>
       </c>
       <c r="B339" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C339" s="2">
         <v>1</v>
@@ -40836,7 +40834,7 @@
         <v>5849</v>
       </c>
       <c r="B340" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C340" s="2">
         <v>2</v>
@@ -40850,7 +40848,7 @@
         <v>5848</v>
       </c>
       <c r="B341" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C341" s="2">
         <v>1</v>
@@ -40867,7 +40865,7 @@
         <v>5848</v>
       </c>
       <c r="B342" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C342" s="2">
         <v>2</v>
@@ -40884,7 +40882,7 @@
         <v>5848</v>
       </c>
       <c r="B343" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C343" s="2">
         <v>3</v>
@@ -40901,7 +40899,7 @@
         <v>5848</v>
       </c>
       <c r="B344" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C344" s="2">
         <v>4</v>
@@ -40918,7 +40916,7 @@
         <v>5848</v>
       </c>
       <c r="B345" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C345" s="2">
         <v>5</v>
@@ -40935,7 +40933,7 @@
         <v>5848</v>
       </c>
       <c r="B346" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C346" s="2">
         <v>6</v>
@@ -40952,7 +40950,7 @@
         <v>5848</v>
       </c>
       <c r="B347" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C347" s="2">
         <v>7</v>
@@ -40969,7 +40967,7 @@
         <v>5848</v>
       </c>
       <c r="B348" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C348" s="2">
         <v>8</v>
@@ -40986,7 +40984,7 @@
         <v>5850</v>
       </c>
       <c r="B349" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C349" s="2">
         <v>0</v>
@@ -41000,7 +40998,7 @@
         <v>5849</v>
       </c>
       <c r="B350" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C350" s="2">
         <v>1</v>
@@ -41014,7 +41012,7 @@
         <v>5849</v>
       </c>
       <c r="B351" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C351" s="2">
         <v>2</v>
@@ -41028,7 +41026,7 @@
         <v>5848</v>
       </c>
       <c r="B352" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C352" s="2">
         <v>1</v>
@@ -41045,7 +41043,7 @@
         <v>5848</v>
       </c>
       <c r="B353" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C353" s="2">
         <v>2</v>
@@ -41062,7 +41060,7 @@
         <v>5848</v>
       </c>
       <c r="B354" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C354" s="2">
         <v>3</v>
@@ -41079,7 +41077,7 @@
         <v>5848</v>
       </c>
       <c r="B355" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C355" s="2">
         <v>4</v>
@@ -41096,7 +41094,7 @@
         <v>5850</v>
       </c>
       <c r="B356" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C356" s="2">
         <v>0</v>
@@ -41110,7 +41108,7 @@
         <v>5849</v>
       </c>
       <c r="B357" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C357" s="2">
         <v>1</v>
@@ -41124,7 +41122,7 @@
         <v>5849</v>
       </c>
       <c r="B358" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C358" s="2">
         <v>2</v>
@@ -41138,7 +41136,7 @@
         <v>5848</v>
       </c>
       <c r="B359" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C359" s="2">
         <v>1</v>
@@ -41155,7 +41153,7 @@
         <v>5848</v>
       </c>
       <c r="B360" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C360" s="2">
         <v>2</v>
@@ -41172,7 +41170,7 @@
         <v>5848</v>
       </c>
       <c r="B361" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C361" s="2">
         <v>3</v>
@@ -41189,7 +41187,7 @@
         <v>5848</v>
       </c>
       <c r="B362" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C362" s="2">
         <v>4</v>
@@ -41206,7 +41204,7 @@
         <v>5848</v>
       </c>
       <c r="B363" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C363" s="2">
         <v>5</v>
@@ -41223,7 +41221,7 @@
         <v>5848</v>
       </c>
       <c r="B364" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C364" s="2">
         <v>6</v>
@@ -41240,7 +41238,7 @@
         <v>5848</v>
       </c>
       <c r="B365" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C365" s="2">
         <v>7</v>
@@ -41257,7 +41255,7 @@
         <v>5850</v>
       </c>
       <c r="B366" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C366" s="2">
         <v>0</v>
@@ -41271,7 +41269,7 @@
         <v>5849</v>
       </c>
       <c r="B367" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C367" s="2">
         <v>1</v>
@@ -41285,7 +41283,7 @@
         <v>5849</v>
       </c>
       <c r="B368" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C368" s="2">
         <v>2</v>
@@ -41299,7 +41297,7 @@
         <v>5848</v>
       </c>
       <c r="B369" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C369" s="2">
         <v>1</v>
@@ -41316,7 +41314,7 @@
         <v>5848</v>
       </c>
       <c r="B370" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C370" s="2">
         <v>2</v>
@@ -41333,7 +41331,7 @@
         <v>5848</v>
       </c>
       <c r="B371" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C371" s="2">
         <v>3</v>
@@ -41350,7 +41348,7 @@
         <v>5848</v>
       </c>
       <c r="B372" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C372" s="2">
         <v>4</v>
@@ -41367,7 +41365,7 @@
         <v>5848</v>
       </c>
       <c r="B373" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C373" s="2">
         <v>5</v>
@@ -41384,7 +41382,7 @@
         <v>5848</v>
       </c>
       <c r="B374" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C374" s="2">
         <v>6</v>
@@ -41401,7 +41399,7 @@
         <v>5850</v>
       </c>
       <c r="B375" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C375" s="2">
         <v>0</v>
@@ -41415,7 +41413,7 @@
         <v>5849</v>
       </c>
       <c r="B376" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C376" s="2">
         <v>1</v>
@@ -41429,7 +41427,7 @@
         <v>5849</v>
       </c>
       <c r="B377" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C377" s="2">
         <v>2</v>
@@ -41443,7 +41441,7 @@
         <v>5848</v>
       </c>
       <c r="B378" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C378" s="2">
         <v>1</v>
@@ -41460,7 +41458,7 @@
         <v>5848</v>
       </c>
       <c r="B379" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C379" s="2">
         <v>2</v>
@@ -41477,7 +41475,7 @@
         <v>5848</v>
       </c>
       <c r="B380" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C380" s="2">
         <v>3</v>
@@ -41494,7 +41492,7 @@
         <v>5848</v>
       </c>
       <c r="B381" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C381" s="2">
         <v>4</v>
@@ -41511,7 +41509,7 @@
         <v>5848</v>
       </c>
       <c r="B382" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C382" s="2">
         <v>5</v>
@@ -41528,7 +41526,7 @@
         <v>5850</v>
       </c>
       <c r="B383" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C383" s="2">
         <v>0</v>
@@ -41542,7 +41540,7 @@
         <v>5849</v>
       </c>
       <c r="B384" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C384" s="2">
         <v>1</v>
@@ -41556,7 +41554,7 @@
         <v>5849</v>
       </c>
       <c r="B385" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C385" s="2">
         <v>2</v>
@@ -41570,7 +41568,7 @@
         <v>5848</v>
       </c>
       <c r="B386" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C386" s="2">
         <v>1</v>
@@ -41587,7 +41585,7 @@
         <v>5848</v>
       </c>
       <c r="B387" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C387" s="2">
         <v>2</v>
@@ -41604,7 +41602,7 @@
         <v>5848</v>
       </c>
       <c r="B388" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C388" s="2">
         <v>3</v>
@@ -41621,7 +41619,7 @@
         <v>5848</v>
       </c>
       <c r="B389" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C389" s="2">
         <v>4</v>
@@ -41638,7 +41636,7 @@
         <v>5848</v>
       </c>
       <c r="B390" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C390" s="2">
         <v>5</v>
@@ -41655,7 +41653,7 @@
         <v>5848</v>
       </c>
       <c r="B391" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C391" s="2">
         <v>6</v>
@@ -41672,7 +41670,7 @@
         <v>5848</v>
       </c>
       <c r="B392" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C392" s="2">
         <v>7</v>
@@ -41689,7 +41687,7 @@
         <v>5848</v>
       </c>
       <c r="B393" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C393" s="2">
         <v>8</v>
@@ -41706,7 +41704,7 @@
         <v>5850</v>
       </c>
       <c r="B394" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C394" s="2">
         <v>0</v>
@@ -41720,7 +41718,7 @@
         <v>5849</v>
       </c>
       <c r="B395" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C395" s="2">
         <v>1</v>
@@ -41734,7 +41732,7 @@
         <v>5849</v>
       </c>
       <c r="B396" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C396" s="2">
         <v>2</v>
@@ -41748,7 +41746,7 @@
         <v>5848</v>
       </c>
       <c r="B397" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C397" s="2">
         <v>1</v>
@@ -41765,7 +41763,7 @@
         <v>5848</v>
       </c>
       <c r="B398" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C398" s="2">
         <v>2</v>
@@ -41782,7 +41780,7 @@
         <v>5848</v>
       </c>
       <c r="B399" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C399" s="2">
         <v>3</v>
@@ -41799,7 +41797,7 @@
         <v>5848</v>
       </c>
       <c r="B400" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C400" s="2">
         <v>4</v>
@@ -41816,7 +41814,7 @@
         <v>5848</v>
       </c>
       <c r="B401" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C401" s="2">
         <v>5</v>
@@ -41833,7 +41831,7 @@
         <v>5848</v>
       </c>
       <c r="B402" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C402" s="2">
         <v>6</v>
@@ -41850,7 +41848,7 @@
         <v>5848</v>
       </c>
       <c r="B403" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C403" s="2">
         <v>7</v>
@@ -41867,7 +41865,7 @@
         <v>5848</v>
       </c>
       <c r="B404" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C404" s="2">
         <v>8</v>
@@ -41884,7 +41882,7 @@
         <v>5850</v>
       </c>
       <c r="B405" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C405" s="2">
         <v>0</v>
@@ -41898,7 +41896,7 @@
         <v>5851</v>
       </c>
       <c r="B406" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C406" s="2">
         <v>0</v>
@@ -41915,7 +41913,7 @@
         <v>5849</v>
       </c>
       <c r="B407" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C407" s="2">
         <v>1</v>
@@ -41929,7 +41927,7 @@
         <v>5849</v>
       </c>
       <c r="B408" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C408" s="2">
         <v>2</v>
@@ -41943,7 +41941,7 @@
         <v>5848</v>
       </c>
       <c r="B409" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C409" s="2">
         <v>1</v>
@@ -41960,7 +41958,7 @@
         <v>5848</v>
       </c>
       <c r="B410" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C410" s="2">
         <v>2</v>
@@ -41977,7 +41975,7 @@
         <v>5848</v>
       </c>
       <c r="B411" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C411" s="2">
         <v>3</v>
@@ -41994,7 +41992,7 @@
         <v>5848</v>
       </c>
       <c r="B412" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C412" s="2">
         <v>4</v>
@@ -42011,7 +42009,7 @@
         <v>5848</v>
       </c>
       <c r="B413" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C413" s="2">
         <v>5</v>
@@ -42028,7 +42026,7 @@
         <v>5848</v>
       </c>
       <c r="B414" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C414" s="2">
         <v>6</v>
@@ -42045,7 +42043,7 @@
         <v>5850</v>
       </c>
       <c r="B415" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C415" s="2">
         <v>0</v>
@@ -42059,7 +42057,7 @@
         <v>5849</v>
       </c>
       <c r="B416" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C416" s="2">
         <v>1</v>
@@ -42073,7 +42071,7 @@
         <v>5849</v>
       </c>
       <c r="B417" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C417" s="2">
         <v>2</v>
@@ -42087,7 +42085,7 @@
         <v>5848</v>
       </c>
       <c r="B418" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C418" s="2">
         <v>1</v>
@@ -42104,7 +42102,7 @@
         <v>5848</v>
       </c>
       <c r="B419" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C419" s="2">
         <v>2</v>
@@ -42121,7 +42119,7 @@
         <v>5848</v>
       </c>
       <c r="B420" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C420" s="2">
         <v>3</v>
@@ -42138,7 +42136,7 @@
         <v>5848</v>
       </c>
       <c r="B421" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C421" s="2">
         <v>4</v>
@@ -42155,7 +42153,7 @@
         <v>5848</v>
       </c>
       <c r="B422" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C422" s="2">
         <v>5</v>
@@ -42172,7 +42170,7 @@
         <v>5848</v>
       </c>
       <c r="B423" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C423" s="2">
         <v>6</v>
@@ -42189,7 +42187,7 @@
         <v>5850</v>
       </c>
       <c r="B424" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C424" s="2">
         <v>0</v>
@@ -42203,7 +42201,7 @@
         <v>5849</v>
       </c>
       <c r="B425" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C425" s="2">
         <v>1</v>
@@ -42217,7 +42215,7 @@
         <v>5849</v>
       </c>
       <c r="B426" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C426" s="2">
         <v>2</v>
@@ -42231,7 +42229,7 @@
         <v>5848</v>
       </c>
       <c r="B427" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C427" s="2">
         <v>1</v>
@@ -42248,7 +42246,7 @@
         <v>5848</v>
       </c>
       <c r="B428" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C428" s="2">
         <v>2</v>
@@ -42265,7 +42263,7 @@
         <v>5848</v>
       </c>
       <c r="B429" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C429" s="2">
         <v>3</v>
@@ -42282,7 +42280,7 @@
         <v>5848</v>
       </c>
       <c r="B430" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C430" s="2">
         <v>4</v>
@@ -42299,7 +42297,7 @@
         <v>5848</v>
       </c>
       <c r="B431" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C431" s="2">
         <v>5</v>
@@ -42316,7 +42314,7 @@
         <v>5850</v>
       </c>
       <c r="B432" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C432" s="2">
         <v>0</v>
@@ -42330,7 +42328,7 @@
         <v>5849</v>
       </c>
       <c r="B433" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C433" s="2">
         <v>1</v>
@@ -42344,7 +42342,7 @@
         <v>5849</v>
       </c>
       <c r="B434" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C434" s="2">
         <v>2</v>
@@ -42358,7 +42356,7 @@
         <v>5848</v>
       </c>
       <c r="B435" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C435" s="2">
         <v>1</v>
@@ -42375,7 +42373,7 @@
         <v>5848</v>
       </c>
       <c r="B436" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C436" s="2">
         <v>2</v>
@@ -42392,7 +42390,7 @@
         <v>5848</v>
       </c>
       <c r="B437" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C437" s="2">
         <v>3</v>
@@ -42409,7 +42407,7 @@
         <v>5848</v>
       </c>
       <c r="B438" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C438" s="2">
         <v>4</v>
@@ -42426,7 +42424,7 @@
         <v>5848</v>
       </c>
       <c r="B439" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C439" s="2">
         <v>5</v>
@@ -42443,7 +42441,7 @@
         <v>5848</v>
       </c>
       <c r="B440" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C440" s="2">
         <v>6</v>
@@ -42460,7 +42458,7 @@
         <v>5850</v>
       </c>
       <c r="B441" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C441" s="2">
         <v>0</v>
@@ -42474,7 +42472,7 @@
         <v>5849</v>
       </c>
       <c r="B442" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C442" s="2">
         <v>1</v>
@@ -42488,7 +42486,7 @@
         <v>5849</v>
       </c>
       <c r="B443" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C443" s="2">
         <v>2</v>
@@ -42502,7 +42500,7 @@
         <v>5848</v>
       </c>
       <c r="B444" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C444" s="2">
         <v>1</v>
@@ -42519,7 +42517,7 @@
         <v>5848</v>
       </c>
       <c r="B445" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C445" s="2">
         <v>2</v>
@@ -42536,7 +42534,7 @@
         <v>5848</v>
       </c>
       <c r="B446" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C446" s="2">
         <v>3</v>
@@ -42553,7 +42551,7 @@
         <v>5848</v>
       </c>
       <c r="B447" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C447" s="2">
         <v>4</v>
@@ -42570,7 +42568,7 @@
         <v>5848</v>
       </c>
       <c r="B448" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C448" s="2">
         <v>5</v>
@@ -42587,7 +42585,7 @@
         <v>5848</v>
       </c>
       <c r="B449" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C449" s="2">
         <v>6</v>
@@ -42604,7 +42602,7 @@
         <v>5850</v>
       </c>
       <c r="B450" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C450" s="2">
         <v>0</v>
@@ -42618,7 +42616,7 @@
         <v>5849</v>
       </c>
       <c r="B451" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C451" s="2">
         <v>1</v>
@@ -42632,7 +42630,7 @@
         <v>5849</v>
       </c>
       <c r="B452" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C452" s="2">
         <v>2</v>
@@ -42646,7 +42644,7 @@
         <v>5848</v>
       </c>
       <c r="B453" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C453" s="2">
         <v>1</v>
@@ -42663,7 +42661,7 @@
         <v>5848</v>
       </c>
       <c r="B454" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C454" s="2">
         <v>2</v>
@@ -42680,7 +42678,7 @@
         <v>5848</v>
       </c>
       <c r="B455" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C455" s="2">
         <v>3</v>
@@ -42697,7 +42695,7 @@
         <v>5848</v>
       </c>
       <c r="B456" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C456" s="2">
         <v>4</v>
@@ -42714,7 +42712,7 @@
         <v>5848</v>
       </c>
       <c r="B457" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C457" s="2">
         <v>5</v>
@@ -42731,7 +42729,7 @@
         <v>5850</v>
       </c>
       <c r="B458" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C458" s="2">
         <v>0</v>
@@ -42745,7 +42743,7 @@
         <v>5849</v>
       </c>
       <c r="B459" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C459" s="2">
         <v>1</v>
@@ -42759,7 +42757,7 @@
         <v>5849</v>
       </c>
       <c r="B460" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C460" s="2">
         <v>2</v>
@@ -42773,7 +42771,7 @@
         <v>5848</v>
       </c>
       <c r="B461" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C461" s="2">
         <v>1</v>
@@ -42790,7 +42788,7 @@
         <v>5848</v>
       </c>
       <c r="B462" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C462" s="2">
         <v>2</v>
@@ -42807,7 +42805,7 @@
         <v>5848</v>
       </c>
       <c r="B463" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C463" s="2">
         <v>3</v>
@@ -42824,7 +42822,7 @@
         <v>5848</v>
       </c>
       <c r="B464" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C464" s="2">
         <v>4</v>
@@ -42841,7 +42839,7 @@
         <v>5848</v>
       </c>
       <c r="B465" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C465" s="2">
         <v>5</v>
@@ -42858,7 +42856,7 @@
         <v>5848</v>
       </c>
       <c r="B466" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C466" s="2">
         <v>6</v>
@@ -42875,7 +42873,7 @@
         <v>5850</v>
       </c>
       <c r="B467" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C467" s="2">
         <v>0</v>
@@ -42889,7 +42887,7 @@
         <v>5849</v>
       </c>
       <c r="B468" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C468" s="2">
         <v>1</v>
@@ -42903,7 +42901,7 @@
         <v>5849</v>
       </c>
       <c r="B469" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C469" s="2">
         <v>2</v>
@@ -42917,7 +42915,7 @@
         <v>5848</v>
       </c>
       <c r="B470" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C470" s="2">
         <v>1</v>
@@ -42934,7 +42932,7 @@
         <v>5848</v>
       </c>
       <c r="B471" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C471" s="2">
         <v>2</v>
@@ -42951,7 +42949,7 @@
         <v>5848</v>
       </c>
       <c r="B472" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C472" s="2">
         <v>3</v>
@@ -42968,7 +42966,7 @@
         <v>5848</v>
       </c>
       <c r="B473" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C473" s="2">
         <v>4</v>
@@ -42985,7 +42983,7 @@
         <v>5848</v>
       </c>
       <c r="B474" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C474" s="2">
         <v>5</v>
@@ -43002,7 +43000,7 @@
         <v>5850</v>
       </c>
       <c r="B475" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C475" s="2">
         <v>0</v>
@@ -43016,7 +43014,7 @@
         <v>5849</v>
       </c>
       <c r="B476" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C476" s="2">
         <v>1</v>
@@ -43030,7 +43028,7 @@
         <v>5849</v>
       </c>
       <c r="B477" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C477" s="2">
         <v>2</v>
@@ -43044,7 +43042,7 @@
         <v>5849</v>
       </c>
       <c r="B478" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C478" s="2">
         <v>3</v>
@@ -61257,7 +61255,7 @@
         <v>0</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>5854</v>
+        <v>5853</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
